--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Building large models 3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Building large models 3.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1115,12 +1115,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1875,12 +1875,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2065,12 +2065,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2445,12 +2445,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2749,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3129,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3395,12 +3395,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3699,12 +3699,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4763,12 +4763,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5427,12 +5427,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5613,12 +5613,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5651,12 +5651,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5689,12 +5689,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5765,12 +5765,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5875,12 +5875,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
